--- a/database/industries/zeraat/simorgh/eps.xlsx
+++ b/database/industries/zeraat/simorgh/eps.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="14">
   <si>
     <t>year</t>
   </si>
@@ -32,6 +32,30 @@
   </si>
   <si>
     <t>capital_now</t>
+  </si>
+  <si>
+    <t>1400</t>
+  </si>
+  <si>
+    <t>1397</t>
+  </si>
+  <si>
+    <t>1396</t>
+  </si>
+  <si>
+    <t>1395</t>
+  </si>
+  <si>
+    <t>1401/02/11</t>
+  </si>
+  <si>
+    <t>1398/01/31</t>
+  </si>
+  <si>
+    <t>1397/04/30</t>
+  </si>
+  <si>
+    <t>1396/04/28</t>
   </si>
 </sst>
 </file>
@@ -389,7 +413,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F1"/>
+  <dimension ref="A1:F5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -415,6 +439,86 @@
         <v>5</v>
       </c>
     </row>
+    <row r="2" spans="1:6">
+      <c r="A2" t="s">
+        <v>6</v>
+      </c>
+      <c r="B2" t="s">
+        <v>10</v>
+      </c>
+      <c r="C2">
+        <v>3792</v>
+      </c>
+      <c r="D2">
+        <v>800</v>
+      </c>
+      <c r="E2">
+        <v>1300000</v>
+      </c>
+      <c r="F2">
+        <v>1300000</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6">
+      <c r="A3" t="s">
+        <v>7</v>
+      </c>
+      <c r="B3" t="s">
+        <v>11</v>
+      </c>
+      <c r="C3">
+        <v>757</v>
+      </c>
+      <c r="D3">
+        <v>189</v>
+      </c>
+      <c r="E3">
+        <v>1300000</v>
+      </c>
+      <c r="F3">
+        <v>1300000</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6">
+      <c r="A4" t="s">
+        <v>8</v>
+      </c>
+      <c r="B4" t="s">
+        <v>12</v>
+      </c>
+      <c r="C4">
+        <v>993</v>
+      </c>
+      <c r="D4">
+        <v>200</v>
+      </c>
+      <c r="E4">
+        <v>800000</v>
+      </c>
+      <c r="F4">
+        <v>1300000</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6">
+      <c r="A5" t="s">
+        <v>9</v>
+      </c>
+      <c r="B5" t="s">
+        <v>13</v>
+      </c>
+      <c r="C5">
+        <v>207</v>
+      </c>
+      <c r="D5">
+        <v>6</v>
+      </c>
+      <c r="E5">
+        <v>800000</v>
+      </c>
+      <c r="F5">
+        <v>1300000</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
